--- a/tabular/ehbv_reference_feature_locations.xlsx
+++ b/tabular/ehbv_reference_feature_locations.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A68E26-FC9B-A14B-B3E6-841049E1457E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2460" windowWidth="26480" windowHeight="15540" xr2:uid="{65E8CB6F-98C0-CD46-8CF1-C590439A2318}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
-  <si>
-    <t>REF_eSNHBV1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Herpetohepadnavirus</t>
   </si>
@@ -48,12 +42,6 @@
     <t>Avihepadnavirus</t>
   </si>
   <si>
-    <t>REF_eCRHBV</t>
-  </si>
-  <si>
-    <t>REF_eCRHBV2</t>
-  </si>
-  <si>
     <t>referenceName</t>
   </si>
   <si>
@@ -69,22 +57,29 @@
     <t>endNT</t>
   </si>
   <si>
-    <t>REF_eDRHBV</t>
-  </si>
-  <si>
-    <t>REF_eTHBV</t>
+    <t>REF_eHBV-Herpeto.1</t>
+  </si>
+  <si>
+    <t>REF_eHBV-Herpeto.3</t>
+  </si>
+  <si>
+    <t>REF_eHBV-Herpeto.5</t>
+  </si>
+  <si>
+    <t>REF_eHBV-Herpeto.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,6 +92,24 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -126,15 +139,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -193,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,54 +464,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CE6613-E568-5A49-B16D-08C74868FA19}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -495,86 +520,81 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>2949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1704</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tabular/ehbv_reference_feature_locations.xlsx
+++ b/tabular/ehbv_reference_feature_locations.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Herpetohepadnavirus</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>REF_eHBV-Herpeto.6</t>
+  </si>
+  <si>
+    <t>REF_HEART</t>
+  </si>
+  <si>
+    <t>HEART</t>
+  </si>
+  <si>
+    <t>ORF1</t>
   </si>
 </sst>
 </file>
@@ -139,8 +148,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -153,13 +176,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -588,6 +625,40 @@
         <v>2949</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1088</v>
+      </c>
+      <c r="E8">
+        <v>2371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
